--- a/extracted_products.xlsx
+++ b/extracted_products.xlsx
@@ -634,12 +634,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Unknown_Color_4</t>
+          <t>Space Blue</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>product_images\Galaxy_S25_Nimbus9_Alto_2_Case\Unknown_Color_4</t>
+          <t>product_images\Galaxy_S25_Nimbus9_Alto_2_Case\Space_Blue</t>
         </is>
       </c>
     </row>
